--- a/output/version2fixed/output_version_2_fixed_cadical_symmetry.xlsx
+++ b/output/version2fixed/output_version_2_fixed_cadical_symmetry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>165.71</v>
+        <v>95.92</v>
       </c>
     </row>
     <row r="5">
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>163.65</v>
+        <v>92.55</v>
       </c>
     </row>
     <row r="6">
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>456.25</v>
+        <v>264.28</v>
       </c>
     </row>
     <row r="7">
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>461.63</v>
+        <v>259.22</v>
       </c>
     </row>
     <row r="8">
@@ -716,501 +716,83 @@
       <c r="I8" t="n">
         <v>2155781</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
       <c r="K8" t="n">
-        <v>552.9</v>
+        <v>395.4</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>P-can__445.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>445</v>
+      </c>
+      <c r="C9" t="n">
+        <v>333</v>
+      </c>
+      <c r="D9" t="n">
+        <v>75</v>
+      </c>
+      <c r="E9" t="n">
+        <v>58</v>
+      </c>
+      <c r="F9" t="n">
+        <v>79</v>
+      </c>
+      <c r="G9" t="n">
+        <v>63</v>
+      </c>
+      <c r="H9" t="n">
+        <v>444110</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2155781</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>345.93</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q-494_bus.mtx.rnd</t>
+          <t>P-can__445.mtx.rnd</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>494</v>
+        <v>445</v>
       </c>
       <c r="C10" t="n">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="D10" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E10" t="n">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="F10" t="n">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="G10" t="n">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="H10" t="n">
-        <v>482638</v>
+        <v>444110</v>
       </c>
       <c r="I10" t="n">
-        <v>1507399</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
+        <v>2155781</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>33.56</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Q-494_bus.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>494</v>
-      </c>
-      <c r="C11" t="n">
-        <v>326</v>
-      </c>
-      <c r="D11" t="n">
-        <v>66</v>
-      </c>
-      <c r="E11" t="n">
-        <v>144</v>
-      </c>
-      <c r="F11" t="n">
-        <v>220</v>
-      </c>
-      <c r="G11" t="n">
-        <v>145</v>
-      </c>
-      <c r="H11" t="n">
-        <v>482638</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1507399</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>88.41</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Q-494_bus.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>494</v>
-      </c>
-      <c r="C12" t="n">
-        <v>326</v>
-      </c>
-      <c r="D12" t="n">
-        <v>66</v>
-      </c>
-      <c r="E12" t="n">
-        <v>144</v>
-      </c>
-      <c r="F12" t="n">
-        <v>220</v>
-      </c>
-      <c r="G12" t="n">
-        <v>146</v>
-      </c>
-      <c r="H12" t="n">
-        <v>482638</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1507399</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>38.25</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Q-494_bus.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>494</v>
-      </c>
-      <c r="C13" t="n">
-        <v>326</v>
-      </c>
-      <c r="D13" t="n">
-        <v>66</v>
-      </c>
-      <c r="E13" t="n">
-        <v>144</v>
-      </c>
-      <c r="F13" t="n">
-        <v>220</v>
-      </c>
-      <c r="G13" t="n">
-        <v>147</v>
-      </c>
-      <c r="H13" t="n">
-        <v>482638</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1507399</v>
-      </c>
-      <c r="J13" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>33.86</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Q-494_bus.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>494</v>
-      </c>
-      <c r="C14" t="n">
-        <v>326</v>
-      </c>
-      <c r="D14" t="n">
-        <v>66</v>
-      </c>
-      <c r="E14" t="n">
-        <v>144</v>
-      </c>
-      <c r="F14" t="n">
-        <v>220</v>
-      </c>
-      <c r="G14" t="n">
-        <v>148</v>
-      </c>
-      <c r="H14" t="n">
-        <v>482638</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1507399</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>95.47</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Q-494_bus.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>494</v>
-      </c>
-      <c r="C15" t="n">
-        <v>326</v>
-      </c>
-      <c r="D15" t="n">
-        <v>66</v>
-      </c>
-      <c r="E15" t="n">
-        <v>144</v>
-      </c>
-      <c r="F15" t="n">
-        <v>220</v>
-      </c>
-      <c r="G15" t="n">
-        <v>149</v>
-      </c>
-      <c r="H15" t="n">
-        <v>482638</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1507399</v>
-      </c>
-      <c r="J15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>92.48999999999999</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Q-494_bus.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>494</v>
-      </c>
-      <c r="C16" t="n">
-        <v>326</v>
-      </c>
-      <c r="D16" t="n">
-        <v>66</v>
-      </c>
-      <c r="E16" t="n">
-        <v>144</v>
-      </c>
-      <c r="F16" t="n">
-        <v>220</v>
-      </c>
-      <c r="G16" t="n">
-        <v>150</v>
-      </c>
-      <c r="H16" t="n">
-        <v>482638</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1507399</v>
-      </c>
-      <c r="J16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>137.38</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Q-494_bus.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>494</v>
-      </c>
-      <c r="C17" t="n">
-        <v>326</v>
-      </c>
-      <c r="D17" t="n">
-        <v>66</v>
-      </c>
-      <c r="E17" t="n">
-        <v>144</v>
-      </c>
-      <c r="F17" t="n">
-        <v>220</v>
-      </c>
-      <c r="G17" t="n">
-        <v>151</v>
-      </c>
-      <c r="H17" t="n">
-        <v>482638</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1507399</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>144.06</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Q-494_bus.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>494</v>
-      </c>
-      <c r="C18" t="n">
-        <v>326</v>
-      </c>
-      <c r="D18" t="n">
-        <v>66</v>
-      </c>
-      <c r="E18" t="n">
-        <v>144</v>
-      </c>
-      <c r="F18" t="n">
-        <v>220</v>
-      </c>
-      <c r="G18" t="n">
-        <v>152</v>
-      </c>
-      <c r="H18" t="n">
-        <v>482638</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1507399</v>
-      </c>
-      <c r="J18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>47.13</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Q-494_bus.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>494</v>
-      </c>
-      <c r="C19" t="n">
-        <v>326</v>
-      </c>
-      <c r="D19" t="n">
-        <v>66</v>
-      </c>
-      <c r="E19" t="n">
-        <v>144</v>
-      </c>
-      <c r="F19" t="n">
-        <v>220</v>
-      </c>
-      <c r="G19" t="n">
-        <v>153</v>
-      </c>
-      <c r="H19" t="n">
-        <v>482638</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1507399</v>
-      </c>
-      <c r="J19" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>293.47</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Q-494_bus.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>494</v>
-      </c>
-      <c r="C20" t="n">
-        <v>326</v>
-      </c>
-      <c r="D20" t="n">
-        <v>66</v>
-      </c>
-      <c r="E20" t="n">
-        <v>144</v>
-      </c>
-      <c r="F20" t="n">
-        <v>220</v>
-      </c>
-      <c r="G20" t="n">
-        <v>154</v>
-      </c>
-      <c r="H20" t="n">
-        <v>482638</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1507399</v>
-      </c>
-      <c r="J20" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>118.86</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Q-494_bus.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>494</v>
-      </c>
-      <c r="C21" t="n">
-        <v>326</v>
-      </c>
-      <c r="D21" t="n">
-        <v>66</v>
-      </c>
-      <c r="E21" t="n">
-        <v>144</v>
-      </c>
-      <c r="F21" t="n">
-        <v>220</v>
-      </c>
-      <c r="G21" t="n">
-        <v>155</v>
-      </c>
-      <c r="H21" t="n">
-        <v>482638</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1507399</v>
-      </c>
-      <c r="J21" t="b">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>392.99</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Q-494_bus.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>494</v>
-      </c>
-      <c r="C22" t="n">
-        <v>326</v>
-      </c>
-      <c r="D22" t="n">
-        <v>66</v>
-      </c>
-      <c r="E22" t="n">
-        <v>144</v>
-      </c>
-      <c r="F22" t="n">
-        <v>220</v>
-      </c>
-      <c r="G22" t="n">
-        <v>156</v>
-      </c>
-      <c r="H22" t="n">
-        <v>482638</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1507399</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>284.18</v>
+        <v>346.79</v>
       </c>
     </row>
   </sheetData>
